--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3277,28 +3277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8121.689368503013</v>
+        <v>8292.257184893917</v>
       </c>
       <c r="AB2" t="n">
-        <v>11112.45369763359</v>
+        <v>11345.83210894061</v>
       </c>
       <c r="AC2" t="n">
-        <v>10051.89671315774</v>
+        <v>10263.00181643827</v>
       </c>
       <c r="AD2" t="n">
-        <v>8121689.368503013</v>
+        <v>8292257.184893916</v>
       </c>
       <c r="AE2" t="n">
-        <v>11112453.69763359</v>
+        <v>11345832.10894061</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.60925623758239e-07</v>
+        <v>1.037859262374801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.090625</v>
       </c>
       <c r="AH2" t="n">
-        <v>10051896.71315774</v>
+        <v>10263001.81643827</v>
       </c>
     </row>
     <row r="3">
@@ -3383,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2687.998613697028</v>
+        <v>2773.282566646755</v>
       </c>
       <c r="AB3" t="n">
-        <v>3677.838289389932</v>
+        <v>3794.527556278217</v>
       </c>
       <c r="AC3" t="n">
-        <v>3326.830564928876</v>
+        <v>3432.383171959754</v>
       </c>
       <c r="AD3" t="n">
-        <v>2687998.613697028</v>
+        <v>2773282.566646755</v>
       </c>
       <c r="AE3" t="n">
-        <v>3677838.289389932</v>
+        <v>3794527.556278217</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057078561704083e-06</v>
+        <v>1.955872097572902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3326830.564928876</v>
+        <v>3432383.171959754</v>
       </c>
     </row>
     <row r="4">
@@ -3489,28 +3489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2042.40548039562</v>
+        <v>2115.493832731668</v>
       </c>
       <c r="AB4" t="n">
-        <v>2794.50928284782</v>
+        <v>2894.511990944538</v>
       </c>
       <c r="AC4" t="n">
-        <v>2527.805239011236</v>
+        <v>2618.263829001885</v>
       </c>
       <c r="AD4" t="n">
-        <v>2042405.48039562</v>
+        <v>2115493.832731668</v>
       </c>
       <c r="AE4" t="n">
-        <v>2794509.28284782</v>
+        <v>2894511.990944538</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.240455287078363e-06</v>
+        <v>2.295167050188019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.25104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2527805.239011236</v>
+        <v>2618263.829001885</v>
       </c>
     </row>
     <row r="5">
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1775.194778436211</v>
+        <v>1848.197789917688</v>
       </c>
       <c r="AB5" t="n">
-        <v>2428.899811922779</v>
+        <v>2528.785752897299</v>
       </c>
       <c r="AC5" t="n">
-        <v>2197.089022855164</v>
+        <v>2287.441989813875</v>
       </c>
       <c r="AD5" t="n">
-        <v>1775194.778436211</v>
+        <v>1848197.789917688</v>
       </c>
       <c r="AE5" t="n">
-        <v>2428899.811922778</v>
+        <v>2528785.752897298</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.338927275644504e-06</v>
+        <v>2.477366010422867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>2197089.022855164</v>
+        <v>2287441.989813875</v>
       </c>
     </row>
     <row r="6">
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1612.152113346748</v>
+        <v>1685.240376174246</v>
       </c>
       <c r="AB6" t="n">
-        <v>2205.817644612643</v>
+        <v>2305.820230239812</v>
       </c>
       <c r="AC6" t="n">
-        <v>1995.29750449532</v>
+        <v>2085.755983704742</v>
       </c>
       <c r="AD6" t="n">
-        <v>1612152.113346748</v>
+        <v>1685240.376174245</v>
       </c>
       <c r="AE6" t="n">
-        <v>2205817.644612643</v>
+        <v>2305820.230239812</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40049050405178e-06</v>
+        <v>2.591274101117838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.85104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1995297.50449532</v>
+        <v>2085755.983704743</v>
       </c>
     </row>
     <row r="7">
@@ -3807,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1505.188290728014</v>
+        <v>1566.251634650977</v>
       </c>
       <c r="AB7" t="n">
-        <v>2059.465023594882</v>
+        <v>2143.014584674885</v>
       </c>
       <c r="AC7" t="n">
-        <v>1862.9125722203</v>
+        <v>1938.488280453373</v>
       </c>
       <c r="AD7" t="n">
-        <v>1505188.290728014</v>
+        <v>1566251.634650977</v>
       </c>
       <c r="AE7" t="n">
-        <v>2059465.023594881</v>
+        <v>2143014.584674885</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.443088756883355e-06</v>
+        <v>2.670092021693506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.53020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1862912.5722203</v>
+        <v>1938488.280453373</v>
       </c>
     </row>
     <row r="8">
@@ -3913,28 +3913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1418.716888276748</v>
+        <v>1479.609639999118</v>
       </c>
       <c r="AB8" t="n">
-        <v>1941.151035912021</v>
+        <v>2024.467185217177</v>
       </c>
       <c r="AC8" t="n">
-        <v>1755.890305467167</v>
+        <v>1831.254878417589</v>
       </c>
       <c r="AD8" t="n">
-        <v>1418716.888276748</v>
+        <v>1479609.639999118</v>
       </c>
       <c r="AE8" t="n">
-        <v>1941151.035912021</v>
+        <v>2024467.185217177</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474308024369509e-06</v>
+        <v>2.727855840197591e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.30729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1755890.305467167</v>
+        <v>1831254.878417589</v>
       </c>
     </row>
     <row r="9">
@@ -4019,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1352.539109884028</v>
+        <v>1413.431861606399</v>
       </c>
       <c r="AB9" t="n">
-        <v>1850.603679957572</v>
+        <v>1933.919829262729</v>
       </c>
       <c r="AC9" t="n">
-        <v>1673.984662080999</v>
+        <v>1749.349235031421</v>
       </c>
       <c r="AD9" t="n">
-        <v>1352539.109884029</v>
+        <v>1413431.861606399</v>
       </c>
       <c r="AE9" t="n">
-        <v>1850603.679957572</v>
+        <v>1933919.829262729</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.495461266357791e-06</v>
+        <v>2.766994876099892e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.16145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1673984.662080999</v>
+        <v>1749349.235031421</v>
       </c>
     </row>
     <row r="10">
@@ -4125,28 +4125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1332.159948068768</v>
+        <v>1393.052699791138</v>
       </c>
       <c r="AB10" t="n">
-        <v>1822.720011696766</v>
+        <v>1906.036161001922</v>
       </c>
       <c r="AC10" t="n">
-        <v>1648.762171984029</v>
+        <v>1724.126744934452</v>
       </c>
       <c r="AD10" t="n">
-        <v>1332159.948068768</v>
+        <v>1393052.699791138</v>
       </c>
       <c r="AE10" t="n">
-        <v>1822720.011696766</v>
+        <v>1906036.161001922</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502609603305556e-06</v>
+        <v>2.780221170991015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.11354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1648762.171984029</v>
+        <v>1724126.744934452</v>
       </c>
     </row>
     <row r="11">
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1338.241858041728</v>
+        <v>1399.134609764099</v>
       </c>
       <c r="AB11" t="n">
-        <v>1831.041549236701</v>
+        <v>1914.357698541858</v>
       </c>
       <c r="AC11" t="n">
-        <v>1656.289513660505</v>
+        <v>1731.654086610927</v>
       </c>
       <c r="AD11" t="n">
-        <v>1338241.858041728</v>
+        <v>1399134.609764099</v>
       </c>
       <c r="AE11" t="n">
-        <v>1831041.549236702</v>
+        <v>1914357.698541858</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.502755487733061e-06</v>
+        <v>2.780491095376548e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.1125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1656289.513660505</v>
+        <v>1731654.086610927</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4852.442092275895</v>
+        <v>4981.672333535192</v>
       </c>
       <c r="AB2" t="n">
-        <v>6639.32534528874</v>
+        <v>6816.143862615593</v>
       </c>
       <c r="AC2" t="n">
-        <v>6005.677452685779</v>
+        <v>6165.620658885297</v>
       </c>
       <c r="AD2" t="n">
-        <v>4852442.092275895</v>
+        <v>4981672.333535192</v>
       </c>
       <c r="AE2" t="n">
-        <v>6639325.34528874</v>
+        <v>6816143.862615593</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.394854561328564e-07</v>
+        <v>1.409573405953419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.25833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6005677.452685779</v>
+        <v>6165620.658885297</v>
       </c>
     </row>
     <row r="3">
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2085.979845601976</v>
+        <v>2156.562207906831</v>
       </c>
       <c r="AB3" t="n">
-        <v>2854.129651688476</v>
+        <v>2950.703553668036</v>
       </c>
       <c r="AC3" t="n">
-        <v>2581.735523527452</v>
+        <v>2669.092547844406</v>
       </c>
       <c r="AD3" t="n">
-        <v>2085979.845601976</v>
+        <v>2156562.207906831</v>
       </c>
       <c r="AE3" t="n">
-        <v>2854129.651688476</v>
+        <v>2950703.553668036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196457284943119e-06</v>
+        <v>2.280632237224225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2581735.523527452</v>
+        <v>2669092.547844406</v>
       </c>
     </row>
     <row r="4">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1636.25902948241</v>
+        <v>1706.841302278713</v>
       </c>
       <c r="AB4" t="n">
-        <v>2238.801790791536</v>
+        <v>2335.375570301548</v>
       </c>
       <c r="AC4" t="n">
-        <v>2025.133690056439</v>
+        <v>2112.490603592167</v>
       </c>
       <c r="AD4" t="n">
-        <v>1636259.02948241</v>
+        <v>1706841.302278713</v>
       </c>
       <c r="AE4" t="n">
-        <v>2238801.790791536</v>
+        <v>2335375.570301548</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363822462667882e-06</v>
+        <v>2.599656095836948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.52708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2025133.690056439</v>
+        <v>2112490.603592167</v>
       </c>
     </row>
     <row r="5">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1429.924584567111</v>
+        <v>1500.421516508842</v>
       </c>
       <c r="AB5" t="n">
-        <v>1956.485900425159</v>
+        <v>2052.942912812973</v>
       </c>
       <c r="AC5" t="n">
-        <v>1769.761632033789</v>
+        <v>1857.012922537578</v>
       </c>
       <c r="AD5" t="n">
-        <v>1429924.584567111</v>
+        <v>1500421.516508842</v>
       </c>
       <c r="AE5" t="n">
-        <v>1956485.900425159</v>
+        <v>2052942.912812973</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.452258886605404e-06</v>
+        <v>2.768229568467296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.825</v>
       </c>
       <c r="AH5" t="n">
-        <v>1769761.632033789</v>
+        <v>1857012.922537578</v>
       </c>
     </row>
     <row r="6">
@@ -4952,28 +4952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1302.927436161823</v>
+        <v>1361.660745479388</v>
       </c>
       <c r="AB6" t="n">
-        <v>1782.722799258277</v>
+        <v>1863.084304197304</v>
       </c>
       <c r="AC6" t="n">
-        <v>1612.58223736423</v>
+        <v>1685.274153059957</v>
       </c>
       <c r="AD6" t="n">
-        <v>1302927.436161823</v>
+        <v>1361660.745479388</v>
       </c>
       <c r="AE6" t="n">
-        <v>1782722.799258277</v>
+        <v>1863084.304197304</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.506739345720498e-06</v>
+        <v>2.872077731640598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.43333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1612582.23736423</v>
+        <v>1685274.153059957</v>
       </c>
     </row>
     <row r="7">
@@ -5058,28 +5058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1225.463286578347</v>
+        <v>1284.196595895912</v>
       </c>
       <c r="AB7" t="n">
-        <v>1676.732932321079</v>
+        <v>1757.094437260106</v>
       </c>
       <c r="AC7" t="n">
-        <v>1516.707894569805</v>
+        <v>1589.399810265532</v>
       </c>
       <c r="AD7" t="n">
-        <v>1225463.286578347</v>
+        <v>1284196.595895912</v>
       </c>
       <c r="AE7" t="n">
-        <v>1676732.932321079</v>
+        <v>1757094.437260106</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.536771510163444e-06</v>
+        <v>2.929323672004829e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.22916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1516707.894569805</v>
+        <v>1589399.810265532</v>
       </c>
     </row>
     <row r="8">
@@ -5164,28 +5164,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1219.648199611838</v>
+        <v>1278.381508929403</v>
       </c>
       <c r="AB8" t="n">
-        <v>1668.77647378997</v>
+        <v>1749.137978728998</v>
       </c>
       <c r="AC8" t="n">
-        <v>1509.510789273946</v>
+        <v>1582.202704969673</v>
       </c>
       <c r="AD8" t="n">
-        <v>1219648.199611838</v>
+        <v>1278381.508929403</v>
       </c>
       <c r="AE8" t="n">
-        <v>1668776.47378997</v>
+        <v>1749137.978728998</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.540544395143714e-06</v>
+        <v>2.936515373055611e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.20416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1509510.789273946</v>
+        <v>1582202.704969673</v>
       </c>
     </row>
   </sheetData>
@@ -5461,28 +5461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1501.333450747205</v>
+        <v>1574.406955984948</v>
       </c>
       <c r="AB2" t="n">
-        <v>2054.190661469599</v>
+        <v>2154.17305511141</v>
       </c>
       <c r="AC2" t="n">
-        <v>1858.141587813642</v>
+        <v>1948.581802132448</v>
       </c>
       <c r="AD2" t="n">
-        <v>1501333.450747204</v>
+        <v>1574406.955984948</v>
       </c>
       <c r="AE2" t="n">
-        <v>2054190.6614696</v>
+        <v>2154173.05511141</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30762289802158e-06</v>
+        <v>2.784894564036635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.415625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1858141.587813642</v>
+        <v>1948581.802132448</v>
       </c>
     </row>
     <row r="3">
@@ -5567,28 +5567,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>962.6851009498205</v>
+        <v>1025.380415042394</v>
       </c>
       <c r="AB3" t="n">
-        <v>1317.188225788769</v>
+        <v>1402.970720452277</v>
       </c>
       <c r="AC3" t="n">
-        <v>1191.477630204774</v>
+        <v>1269.073163974085</v>
       </c>
       <c r="AD3" t="n">
-        <v>962685.1009498205</v>
+        <v>1025380.415042394</v>
       </c>
       <c r="AE3" t="n">
-        <v>1317188.225788769</v>
+        <v>1402970.720452277</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.607879385745015e-06</v>
+        <v>3.424362304883683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.91041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1191477.630204774</v>
+        <v>1269073.163974085</v>
       </c>
     </row>
     <row r="4">
@@ -5673,28 +5673,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>966.7000847603985</v>
+        <v>1029.395398852972</v>
       </c>
       <c r="AB4" t="n">
-        <v>1322.681703766987</v>
+        <v>1408.464198430495</v>
       </c>
       <c r="AC4" t="n">
-        <v>1196.446818354896</v>
+        <v>1274.042352124206</v>
       </c>
       <c r="AD4" t="n">
-        <v>966700.0847603985</v>
+        <v>1029395.398852972</v>
       </c>
       <c r="AE4" t="n">
-        <v>1322681.703766987</v>
+        <v>1408464.198430495</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.610236980152266e-06</v>
+        <v>3.429383363981753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1196446.818354896</v>
+        <v>1274042.352124206</v>
       </c>
     </row>
   </sheetData>
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2317.297102355184</v>
+        <v>2405.071470724787</v>
       </c>
       <c r="AB2" t="n">
-        <v>3170.628127375533</v>
+        <v>3290.724890510667</v>
       </c>
       <c r="AC2" t="n">
-        <v>2868.027828903217</v>
+        <v>2976.662725521596</v>
       </c>
       <c r="AD2" t="n">
-        <v>2317297.102355184</v>
+        <v>2405071.470724787</v>
       </c>
       <c r="AE2" t="n">
-        <v>3170628.127375532</v>
+        <v>3290724.890510667</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.07552065114056e-06</v>
+        <v>2.183678763357845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.60208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2868027.828903217</v>
+        <v>2976662.725521596</v>
       </c>
     </row>
     <row r="3">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1304.869771899279</v>
+        <v>1370.700548176481</v>
       </c>
       <c r="AB3" t="n">
-        <v>1785.38038870407</v>
+        <v>1875.452961055416</v>
       </c>
       <c r="AC3" t="n">
-        <v>1614.986190203267</v>
+        <v>1696.462362667049</v>
       </c>
       <c r="AD3" t="n">
-        <v>1304869.771899279</v>
+        <v>1370700.548176481</v>
       </c>
       <c r="AE3" t="n">
-        <v>1785380.38870407</v>
+        <v>1875452.961055416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458461422225208e-06</v>
+        <v>2.961180923409013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.50625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1614986.190203267</v>
+        <v>1696462.362667049</v>
       </c>
     </row>
     <row r="4">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1061.423765286263</v>
+        <v>1127.169200708894</v>
       </c>
       <c r="AB4" t="n">
-        <v>1452.286822376327</v>
+        <v>1542.242627605475</v>
       </c>
       <c r="AC4" t="n">
-        <v>1313.682606346086</v>
+        <v>1395.05315577793</v>
       </c>
       <c r="AD4" t="n">
-        <v>1061423.765286263</v>
+        <v>1127169.200708894</v>
       </c>
       <c r="AE4" t="n">
-        <v>1452286.822376327</v>
+        <v>1542242.627605475</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.587665670609679e-06</v>
+        <v>3.223510217629054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.56979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1313682.606346086</v>
+        <v>1395053.15577793</v>
       </c>
     </row>
     <row r="5">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1051.902568905146</v>
+        <v>1106.84688999072</v>
       </c>
       <c r="AB5" t="n">
-        <v>1439.259501442144</v>
+        <v>1514.436745523796</v>
       </c>
       <c r="AC5" t="n">
-        <v>1301.898594637902</v>
+        <v>1369.901028056326</v>
       </c>
       <c r="AD5" t="n">
-        <v>1051902.568905146</v>
+        <v>1106846.88999072</v>
       </c>
       <c r="AE5" t="n">
-        <v>1439259.501442144</v>
+        <v>1514436.745523796</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.595881900868542e-06</v>
+        <v>3.24019200566549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.51458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1301898.594637902</v>
+        <v>1369901.028056326</v>
       </c>
     </row>
   </sheetData>
@@ -6585,28 +6585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1029.719292071701</v>
+        <v>1089.912970507641</v>
       </c>
       <c r="AB2" t="n">
-        <v>1408.90736342152</v>
+        <v>1491.267009815246</v>
       </c>
       <c r="AC2" t="n">
-        <v>1274.443222070473</v>
+        <v>1348.942579404872</v>
       </c>
       <c r="AD2" t="n">
-        <v>1029719.292071701</v>
+        <v>1089912.970507641</v>
       </c>
       <c r="AE2" t="n">
-        <v>1408907.36342152</v>
+        <v>1491267.009815246</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.513734873904585e-06</v>
+        <v>3.370791895372783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1274443.222070473</v>
+        <v>1348942.579404872</v>
       </c>
     </row>
     <row r="3">
@@ -6691,28 +6691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>917.3264400874415</v>
+        <v>977.4347776688102</v>
       </c>
       <c r="AB3" t="n">
-        <v>1255.126504913974</v>
+        <v>1337.369384185503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1135.338992866097</v>
+        <v>1209.732727168557</v>
       </c>
       <c r="AD3" t="n">
-        <v>917326.4400874415</v>
+        <v>977434.7776688102</v>
       </c>
       <c r="AE3" t="n">
-        <v>1255126.504913975</v>
+        <v>1337369.384185503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.596111433766983e-06</v>
+        <v>3.55422840406378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.41458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1135338.992866097</v>
+        <v>1209732.727168557</v>
       </c>
     </row>
   </sheetData>
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5494.020574510243</v>
+        <v>5636.461997586774</v>
       </c>
       <c r="AB2" t="n">
-        <v>7517.161329126834</v>
+        <v>7712.055968252233</v>
       </c>
       <c r="AC2" t="n">
-        <v>6799.734002276874</v>
+        <v>6976.02817058048</v>
       </c>
       <c r="AD2" t="n">
-        <v>5494020.574510243</v>
+        <v>5636461.997586774</v>
       </c>
       <c r="AE2" t="n">
-        <v>7517161.329126834</v>
+        <v>7712055.968252233</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.920129031350582e-07</v>
+        <v>1.308432855465976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6799734.002276874</v>
+        <v>6976028.17058048</v>
       </c>
     </row>
     <row r="3">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2224.951033770518</v>
+        <v>2307.921053863069</v>
       </c>
       <c r="AB3" t="n">
-        <v>3044.276162316969</v>
+        <v>3157.799404186553</v>
       </c>
       <c r="AC3" t="n">
-        <v>2753.734718053752</v>
+        <v>2856.423461050169</v>
       </c>
       <c r="AD3" t="n">
-        <v>2224951.033770518</v>
+        <v>2307921.053863069</v>
       </c>
       <c r="AE3" t="n">
-        <v>3044276.16231697</v>
+        <v>3157799.404186553</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.159686200758427e-06</v>
+        <v>2.192692535397273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.434375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2753734.718053752</v>
+        <v>2856423.46105017</v>
       </c>
     </row>
     <row r="4">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1732.991429045899</v>
+        <v>1804.25481101145</v>
       </c>
       <c r="AB4" t="n">
-        <v>2371.155327406582</v>
+        <v>2468.661030530375</v>
       </c>
       <c r="AC4" t="n">
-        <v>2144.855590896301</v>
+        <v>2233.055486564073</v>
       </c>
       <c r="AD4" t="n">
-        <v>1732991.429045899</v>
+        <v>1804254.81101145</v>
       </c>
       <c r="AE4" t="n">
-        <v>2371155.327406582</v>
+        <v>2468661.030530375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330782539895342e-06</v>
+        <v>2.516195277271723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.70625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2144855.590896301</v>
+        <v>2233055.486564073</v>
       </c>
     </row>
     <row r="5">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1516.694475912561</v>
+        <v>1587.872517023541</v>
       </c>
       <c r="AB5" t="n">
-        <v>2075.208293781443</v>
+        <v>2172.597229783039</v>
       </c>
       <c r="AC5" t="n">
-        <v>1877.153326796075</v>
+        <v>1965.247599431908</v>
       </c>
       <c r="AD5" t="n">
-        <v>1516694.475912561</v>
+        <v>1587872.517023541</v>
       </c>
       <c r="AE5" t="n">
-        <v>2075208.293781443</v>
+        <v>2172597.229783039</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420667941837026e-06</v>
+        <v>2.686147329602617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.965625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1877153.326796075</v>
+        <v>1965247.599431908</v>
       </c>
     </row>
     <row r="6">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1383.519608245515</v>
+        <v>1442.991100738046</v>
       </c>
       <c r="AB6" t="n">
-        <v>1892.992564578885</v>
+        <v>1974.364084304243</v>
       </c>
       <c r="AC6" t="n">
-        <v>1712.328011047226</v>
+        <v>1785.933547135642</v>
       </c>
       <c r="AD6" t="n">
-        <v>1383519.608245515</v>
+        <v>1442991.100738046</v>
       </c>
       <c r="AE6" t="n">
-        <v>1892992.564578885</v>
+        <v>1974364.084304243</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.47794932111101e-06</v>
+        <v>2.794452880422472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1712328.011047226</v>
+        <v>1785933.547135642</v>
       </c>
     </row>
     <row r="7">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1283.511604161932</v>
+        <v>1342.81250445387</v>
       </c>
       <c r="AB7" t="n">
-        <v>1756.157201349972</v>
+        <v>1837.295309300483</v>
       </c>
       <c r="AC7" t="n">
-        <v>1588.552022835242</v>
+        <v>1661.946423641007</v>
       </c>
       <c r="AD7" t="n">
-        <v>1283511.604161932</v>
+        <v>1342812.50445387</v>
       </c>
       <c r="AE7" t="n">
-        <v>1756157.201349972</v>
+        <v>1837295.309300483</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.517433091681068e-06</v>
+        <v>2.869107359316576e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1588552.022835243</v>
+        <v>1661946.423641006</v>
       </c>
     </row>
     <row r="8">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1244.849483422965</v>
+        <v>1304.150383714904</v>
       </c>
       <c r="AB8" t="n">
-        <v>1703.25798210253</v>
+        <v>1784.396090053041</v>
       </c>
       <c r="AC8" t="n">
-        <v>1540.701430828256</v>
+        <v>1614.09583163402</v>
       </c>
       <c r="AD8" t="n">
-        <v>1244849.483422966</v>
+        <v>1304150.383714904</v>
       </c>
       <c r="AE8" t="n">
-        <v>1703257.98210253</v>
+        <v>1784396.090053041</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.531192587485785e-06</v>
+        <v>2.895123314082703e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.17395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1540701.430828256</v>
+        <v>1614095.83163402</v>
       </c>
     </row>
     <row r="9">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1250.327449607135</v>
+        <v>1309.628349899074</v>
       </c>
       <c r="AB9" t="n">
-        <v>1710.753177106523</v>
+        <v>1791.891285057034</v>
       </c>
       <c r="AC9" t="n">
-        <v>1547.48129494064</v>
+        <v>1620.875695746404</v>
       </c>
       <c r="AD9" t="n">
-        <v>1250327.449607135</v>
+        <v>1309628.349899074</v>
       </c>
       <c r="AE9" t="n">
-        <v>1710753.177106523</v>
+        <v>1791891.285057034</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.530893468011769e-06</v>
+        <v>2.894557749848657e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.17604166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1547481.29494064</v>
+        <v>1620875.695746404</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>883.8076950428309</v>
+        <v>952.234136227279</v>
       </c>
       <c r="AB2" t="n">
-        <v>1209.264679201271</v>
+        <v>1302.888754791365</v>
       </c>
       <c r="AC2" t="n">
-        <v>1093.854155431938</v>
+        <v>1178.542880649929</v>
       </c>
       <c r="AD2" t="n">
-        <v>883807.6950428309</v>
+        <v>952234.136227279</v>
       </c>
       <c r="AE2" t="n">
-        <v>1209264.679201271</v>
+        <v>1302888.754791365</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569175226546276e-06</v>
+        <v>3.597438946454598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.88125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1093854.155431938</v>
+        <v>1178542.880649928</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.0874691529585</v>
+        <v>949.885003061751</v>
       </c>
       <c r="AB3" t="n">
-        <v>1219.225187299715</v>
+        <v>1299.674567157849</v>
       </c>
       <c r="AC3" t="n">
-        <v>1102.864046617128</v>
+        <v>1175.635450573014</v>
       </c>
       <c r="AD3" t="n">
-        <v>891087.4691529585</v>
+        <v>949885.003061751</v>
       </c>
       <c r="AE3" t="n">
-        <v>1219225.187299715</v>
+        <v>1299674.567157849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.571323065341594e-06</v>
+        <v>3.602363010257205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1102864.046617127</v>
+        <v>1175635.450573014</v>
       </c>
     </row>
   </sheetData>
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3381.355088655241</v>
+        <v>3483.827453309133</v>
       </c>
       <c r="AB2" t="n">
-        <v>4626.519207156643</v>
+        <v>4766.726417237776</v>
       </c>
       <c r="AC2" t="n">
-        <v>4184.970707385928</v>
+        <v>4311.796738118968</v>
       </c>
       <c r="AD2" t="n">
-        <v>3381355.088655241</v>
+        <v>3483827.453309134</v>
       </c>
       <c r="AE2" t="n">
-        <v>4626519.207156643</v>
+        <v>4766726.417237776</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.929769202943194e-07</v>
+        <v>1.750222422894602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.13854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4184970.707385928</v>
+        <v>4311796.738118968</v>
       </c>
     </row>
     <row r="3">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1685.011540757159</v>
+        <v>1753.29803341108</v>
       </c>
       <c r="AB3" t="n">
-        <v>2305.507127526648</v>
+        <v>2398.939719363181</v>
       </c>
       <c r="AC3" t="n">
-        <v>2085.472763075081</v>
+        <v>2169.988279480201</v>
       </c>
       <c r="AD3" t="n">
-        <v>1685011.540757159</v>
+        <v>1753298.03341108</v>
       </c>
       <c r="AE3" t="n">
-        <v>2305507.127526648</v>
+        <v>2398939.719363181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.316375171027635e-06</v>
+        <v>2.580077142995943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.30416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2085472.763075081</v>
+        <v>2169988.279480201</v>
       </c>
     </row>
     <row r="4">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1353.421402350754</v>
+        <v>1410.39794519259</v>
       </c>
       <c r="AB4" t="n">
-        <v>1851.810871434541</v>
+        <v>1929.768690978409</v>
       </c>
       <c r="AC4" t="n">
-        <v>1675.07664089771</v>
+        <v>1745.594275558797</v>
       </c>
       <c r="AD4" t="n">
-        <v>1353421.402350754</v>
+        <v>1410397.945192589</v>
       </c>
       <c r="AE4" t="n">
-        <v>1851810.871434541</v>
+        <v>1929768.690978409</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.469221473073485e-06</v>
+        <v>2.879653782679975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>1675076.64089771</v>
+        <v>1745594.275558797</v>
       </c>
     </row>
     <row r="5">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1178.575758861697</v>
+        <v>1235.466960848961</v>
       </c>
       <c r="AB5" t="n">
-        <v>1612.579348367426</v>
+        <v>1690.420400789095</v>
       </c>
       <c r="AC5" t="n">
-        <v>1458.677038628568</v>
+        <v>1529.089050257717</v>
       </c>
       <c r="AD5" t="n">
-        <v>1178575.758861697</v>
+        <v>1235466.960848961</v>
       </c>
       <c r="AE5" t="n">
-        <v>1612579.348367426</v>
+        <v>1690420.400789095</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.548676671797218e-06</v>
+        <v>3.035384874112874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.45833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1458677.038628568</v>
+        <v>1529089.050257717</v>
       </c>
     </row>
     <row r="6">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1133.312101881244</v>
+        <v>1190.203303868509</v>
       </c>
       <c r="AB6" t="n">
-        <v>1550.647615995158</v>
+        <v>1628.488668416828</v>
       </c>
       <c r="AC6" t="n">
-        <v>1402.655983872178</v>
+        <v>1473.067995501326</v>
       </c>
       <c r="AD6" t="n">
-        <v>1133312.101881244</v>
+        <v>1190203.303868509</v>
       </c>
       <c r="AE6" t="n">
-        <v>1550647.615995158</v>
+        <v>1628488.668416828</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.569512281638666e-06</v>
+        <v>3.076222381455357e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.31979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1402655.983872178</v>
+        <v>1473067.995501326</v>
       </c>
     </row>
     <row r="7">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1139.436505107477</v>
+        <v>1196.327707094742</v>
       </c>
       <c r="AB7" t="n">
-        <v>1559.027294678891</v>
+        <v>1636.868347100561</v>
       </c>
       <c r="AC7" t="n">
-        <v>1410.235917783288</v>
+        <v>1480.647929412436</v>
       </c>
       <c r="AD7" t="n">
-        <v>1139436.505107477</v>
+        <v>1196327.707094742</v>
       </c>
       <c r="AE7" t="n">
-        <v>1559027.294678891</v>
+        <v>1636868.347100561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.569512281638666e-06</v>
+        <v>3.076222381455357e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.31979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1410235.917783288</v>
+        <v>1480647.929412436</v>
       </c>
     </row>
   </sheetData>
@@ -9257,28 +9257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4308.720497189917</v>
+        <v>4425.094018503944</v>
       </c>
       <c r="AB2" t="n">
-        <v>5895.381471588228</v>
+        <v>6054.608857487506</v>
       </c>
       <c r="AC2" t="n">
-        <v>5332.734538159488</v>
+        <v>5476.765485825572</v>
       </c>
       <c r="AD2" t="n">
-        <v>4308720.497189918</v>
+        <v>4425094.018503943</v>
       </c>
       <c r="AE2" t="n">
-        <v>5895381.471588228</v>
+        <v>6054608.857487505</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.874912319246691e-07</v>
+        <v>1.514111818069355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5332734.538159488</v>
+        <v>5476765.485825572</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1939.999936755044</v>
+        <v>2021.435736762505</v>
       </c>
       <c r="AB3" t="n">
-        <v>2654.393500225051</v>
+        <v>2765.817554489194</v>
       </c>
       <c r="AC3" t="n">
-        <v>2401.061910028247</v>
+        <v>2501.851808938063</v>
       </c>
       <c r="AD3" t="n">
-        <v>1939999.936755044</v>
+        <v>2021435.736762505</v>
       </c>
       <c r="AE3" t="n">
-        <v>2654393.50022505</v>
+        <v>2765817.554489194</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234939819303805e-06</v>
+        <v>2.374422595718744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.85104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2401061.910028247</v>
+        <v>2501851.808938063</v>
       </c>
     </row>
     <row r="4">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1544.632599462421</v>
+        <v>1614.337270857856</v>
       </c>
       <c r="AB4" t="n">
-        <v>2113.434466965383</v>
+        <v>2208.807473521686</v>
       </c>
       <c r="AC4" t="n">
-        <v>1911.73124766211</v>
+        <v>1998.001988329535</v>
       </c>
       <c r="AD4" t="n">
-        <v>1544632.599462421</v>
+        <v>1614337.270857856</v>
       </c>
       <c r="AE4" t="n">
-        <v>2113434.466965383</v>
+        <v>2208807.473521686</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39612490798175e-06</v>
+        <v>2.684333662369427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1911731.24766211</v>
+        <v>1998001.988329535</v>
       </c>
     </row>
     <row r="5">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1347.3477840078</v>
+        <v>1417.137706749256</v>
       </c>
       <c r="AB5" t="n">
-        <v>1843.500678868582</v>
+        <v>1938.990330077534</v>
       </c>
       <c r="AC5" t="n">
-        <v>1667.559561446817</v>
+        <v>1753.935814364954</v>
       </c>
       <c r="AD5" t="n">
-        <v>1347347.7840078</v>
+        <v>1417137.706749256</v>
       </c>
       <c r="AE5" t="n">
-        <v>1843500.678868582</v>
+        <v>1938990.330077534</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.482963755379131e-06</v>
+        <v>2.851298981831515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1667559.561446817</v>
+        <v>1753935.814364954</v>
       </c>
     </row>
     <row r="6">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1224.528430381587</v>
+        <v>1282.672565365589</v>
       </c>
       <c r="AB6" t="n">
-        <v>1675.453820829728</v>
+        <v>1755.009191453037</v>
       </c>
       <c r="AC6" t="n">
-        <v>1515.550859683944</v>
+        <v>1587.513577391629</v>
       </c>
       <c r="AD6" t="n">
-        <v>1224528.430381587</v>
+        <v>1282672.565365589</v>
       </c>
       <c r="AE6" t="n">
-        <v>1675453.820829728</v>
+        <v>1755009.191453037</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.535676459237892e-06</v>
+        <v>2.952649859961133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1515550.859683944</v>
+        <v>1587513.577391629</v>
       </c>
     </row>
     <row r="7">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1190.199236610278</v>
+        <v>1248.34337159428</v>
       </c>
       <c r="AB7" t="n">
-        <v>1628.483103414681</v>
+        <v>1708.03847403799</v>
       </c>
       <c r="AC7" t="n">
-        <v>1473.062961615174</v>
+        <v>1545.025679322858</v>
       </c>
       <c r="AD7" t="n">
-        <v>1190199.236610278</v>
+        <v>1248343.37159428</v>
       </c>
       <c r="AE7" t="n">
-        <v>1628483.103414681</v>
+        <v>1708038.47403799</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.550149600470789e-06</v>
+        <v>2.980477413204814e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.2375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1473062.961615174</v>
+        <v>1545025.679322858</v>
       </c>
     </row>
     <row r="8">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1196.874445456571</v>
+        <v>1255.018580440574</v>
       </c>
       <c r="AB8" t="n">
-        <v>1637.61641864761</v>
+        <v>1717.171789270919</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.324606060961</v>
+        <v>1553.287323768645</v>
       </c>
       <c r="AD8" t="n">
-        <v>1196874.445456571</v>
+        <v>1255018.580440574</v>
       </c>
       <c r="AE8" t="n">
-        <v>1637616.41864761</v>
+        <v>1717171.789270919</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550454298180955e-06</v>
+        <v>2.981063256430997e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.23541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481324.606060961</v>
+        <v>1553287.323768645</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7096.419506694075</v>
+        <v>7253.456035205288</v>
       </c>
       <c r="AB2" t="n">
-        <v>9709.634240992516</v>
+        <v>9924.498547264255</v>
       </c>
       <c r="AC2" t="n">
-        <v>8782.960376589073</v>
+        <v>8977.318335034177</v>
       </c>
       <c r="AD2" t="n">
-        <v>7096419.506694075</v>
+        <v>7253456.035205288</v>
       </c>
       <c r="AE2" t="n">
-        <v>9709634.240992516</v>
+        <v>9924498.547264256</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.03201695958343e-07</v>
+        <v>1.123719008878662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.39270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8782960.376589073</v>
+        <v>8977318.335034177</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2530.312795705176</v>
+        <v>2614.877532434742</v>
       </c>
       <c r="AB3" t="n">
-        <v>3462.08559660615</v>
+        <v>3577.790800132431</v>
       </c>
       <c r="AC3" t="n">
-        <v>3131.66900633358</v>
+        <v>3236.331467628583</v>
       </c>
       <c r="AD3" t="n">
-        <v>2530312.795705176</v>
+        <v>2614877.532434742</v>
       </c>
       <c r="AE3" t="n">
-        <v>3462085.59660615</v>
+        <v>3577790.800132431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.090380442596566e-06</v>
+        <v>2.031296063099775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.04895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3131669.00633358</v>
+        <v>3236331.467628583</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1940.64352965036</v>
+        <v>2013.115410940557</v>
       </c>
       <c r="AB4" t="n">
-        <v>2655.274092417736</v>
+        <v>2754.433317632736</v>
       </c>
       <c r="AC4" t="n">
-        <v>2401.858459737982</v>
+        <v>2491.554067669309</v>
       </c>
       <c r="AD4" t="n">
-        <v>1940643.52965036</v>
+        <v>2013115.410940557</v>
       </c>
       <c r="AE4" t="n">
-        <v>2655274.092417736</v>
+        <v>2754433.317632736</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.270076315941543e-06</v>
+        <v>2.366055845852024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.06041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2401858.459737982</v>
+        <v>2491554.067669309</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1690.445019728819</v>
+        <v>1750.909386434218</v>
       </c>
       <c r="AB5" t="n">
-        <v>2312.941453163848</v>
+        <v>2395.671467189771</v>
       </c>
       <c r="AC5" t="n">
-        <v>2092.197567107608</v>
+        <v>2167.0319447072</v>
       </c>
       <c r="AD5" t="n">
-        <v>1690445.019728819</v>
+        <v>1750909.386434218</v>
       </c>
       <c r="AE5" t="n">
-        <v>2312941.453163848</v>
+        <v>2395671.467189771</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.365512176662402e-06</v>
+        <v>2.543845615906205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.21770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2092197.567107608</v>
+        <v>2167031.9447072</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1535.493995866623</v>
+        <v>1607.965787648269</v>
       </c>
       <c r="AB6" t="n">
-        <v>2100.930626358876</v>
+        <v>2200.089729104328</v>
       </c>
       <c r="AC6" t="n">
-        <v>1900.420756053838</v>
+        <v>1990.116253203939</v>
       </c>
       <c r="AD6" t="n">
-        <v>1535493.995866623</v>
+        <v>1607965.787648269</v>
       </c>
       <c r="AE6" t="n">
-        <v>2100930.626358876</v>
+        <v>2200089.729104328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425655885498814e-06</v>
+        <v>2.655888783783185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.74375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1900420.756053838</v>
+        <v>1990116.253203939</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1431.422174897923</v>
+        <v>1491.80120074875</v>
       </c>
       <c r="AB7" t="n">
-        <v>1958.5349695848</v>
+        <v>2041.148216488525</v>
       </c>
       <c r="AC7" t="n">
-        <v>1771.61514090872</v>
+        <v>1846.343895476374</v>
       </c>
       <c r="AD7" t="n">
-        <v>1431422.174897923</v>
+        <v>1491801.20074875</v>
       </c>
       <c r="AE7" t="n">
-        <v>1958534.9695848</v>
+        <v>2041148.216488525</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46712416396304e-06</v>
+        <v>2.733141041341396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.440625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1771615.14090872</v>
+        <v>1846343.895476374</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1345.14672518682</v>
+        <v>1405.525751037647</v>
       </c>
       <c r="AB8" t="n">
-        <v>1840.489093085855</v>
+        <v>1923.102339989581</v>
       </c>
       <c r="AC8" t="n">
-        <v>1664.835397184406</v>
+        <v>1739.56415175206</v>
       </c>
       <c r="AD8" t="n">
-        <v>1345146.72518682</v>
+        <v>1405525.751037647</v>
       </c>
       <c r="AE8" t="n">
-        <v>1840489.093085855</v>
+        <v>1923102.33998958</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.496975442431968e-06</v>
+        <v>2.788751709016279e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.23229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1664835.397184406</v>
+        <v>1739564.15175206</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1304.088824662335</v>
+        <v>1364.467850513162</v>
       </c>
       <c r="AB9" t="n">
-        <v>1784.311862241523</v>
+        <v>1866.925109145248</v>
       </c>
       <c r="AC9" t="n">
-        <v>1614.019642406618</v>
+        <v>1688.748396974273</v>
       </c>
       <c r="AD9" t="n">
-        <v>1304088.824662335</v>
+        <v>1364467.850513162</v>
       </c>
       <c r="AE9" t="n">
-        <v>1784311.862241523</v>
+        <v>1866925.109145248</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.511680505717154e-06</v>
+        <v>2.816146126590112e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1614019.642406618</v>
+        <v>1688748.396974273</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1303.960922201631</v>
+        <v>1364.339948052458</v>
       </c>
       <c r="AB10" t="n">
-        <v>1784.136860452129</v>
+        <v>1866.750107355854</v>
       </c>
       <c r="AC10" t="n">
-        <v>1613.861342542388</v>
+        <v>1688.590097110041</v>
       </c>
       <c r="AD10" t="n">
-        <v>1303960.922201631</v>
+        <v>1364339.948052458</v>
       </c>
       <c r="AE10" t="n">
-        <v>1784136.860452129</v>
+        <v>1866750.107355854</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.513151012045673e-06</v>
+        <v>2.818885568347496e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.12291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1613861.342542388</v>
+        <v>1688590.097110041</v>
       </c>
     </row>
   </sheetData>
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2634.211326164381</v>
+        <v>2723.089942731234</v>
       </c>
       <c r="AB2" t="n">
-        <v>3604.244149660107</v>
+        <v>3725.851793894711</v>
       </c>
       <c r="AC2" t="n">
-        <v>3260.260146604846</v>
+        <v>3370.261727951095</v>
       </c>
       <c r="AD2" t="n">
-        <v>2634211.326164381</v>
+        <v>2723089.942731234</v>
       </c>
       <c r="AE2" t="n">
-        <v>3604244.149660107</v>
+        <v>3725851.79389471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.011470637145381e-06</v>
+        <v>2.027490216782031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3260260.146604846</v>
+        <v>3370261.727951095</v>
       </c>
     </row>
     <row r="3">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1424.742583380797</v>
+        <v>1491.465484315451</v>
       </c>
       <c r="AB3" t="n">
-        <v>1949.395657788288</v>
+        <v>2040.688874453722</v>
       </c>
       <c r="AC3" t="n">
-        <v>1763.348072202962</v>
+        <v>1845.928392400682</v>
       </c>
       <c r="AD3" t="n">
-        <v>1424742.583380797</v>
+        <v>1491465.484315451</v>
       </c>
       <c r="AE3" t="n">
-        <v>1949395.657788288</v>
+        <v>2040688.874453722</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408868191657674e-06</v>
+        <v>2.824072563671229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1763348.072202962</v>
+        <v>1845928.392400682</v>
       </c>
     </row>
     <row r="4">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1148.371460409868</v>
+        <v>1215.00902048995</v>
       </c>
       <c r="AB4" t="n">
-        <v>1571.252494706029</v>
+        <v>1662.428944249266</v>
       </c>
       <c r="AC4" t="n">
-        <v>1421.294361878013</v>
+        <v>1503.769059043793</v>
       </c>
       <c r="AD4" t="n">
-        <v>1148371.460409868</v>
+        <v>1215009.02048995</v>
       </c>
       <c r="AE4" t="n">
-        <v>1571252.49470603</v>
+        <v>1662428.944249266</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550136817921452e-06</v>
+        <v>3.107245151356419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.68958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1421294.361878013</v>
+        <v>1503769.059043793</v>
       </c>
     </row>
     <row r="5">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1077.433925340552</v>
+        <v>1132.951091440077</v>
       </c>
       <c r="AB5" t="n">
-        <v>1474.192629681017</v>
+        <v>1550.153665582896</v>
       </c>
       <c r="AC5" t="n">
-        <v>1333.497754146611</v>
+        <v>1402.209175393998</v>
       </c>
       <c r="AD5" t="n">
-        <v>1077433.925340552</v>
+        <v>1132951.091440077</v>
       </c>
       <c r="AE5" t="n">
-        <v>1474192.629681017</v>
+        <v>1550153.665582896</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.587681182559122e-06</v>
+        <v>3.182502730966448e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1333497.754146611</v>
+        <v>1402209.175393998</v>
       </c>
     </row>
     <row r="6">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1083.661147806896</v>
+        <v>1139.17831390642</v>
       </c>
       <c r="AB6" t="n">
-        <v>1482.712990185135</v>
+        <v>1558.674026087013</v>
       </c>
       <c r="AC6" t="n">
-        <v>1341.204943402616</v>
+        <v>1409.916364650004</v>
       </c>
       <c r="AD6" t="n">
-        <v>1083661.147806896</v>
+        <v>1139178.31390642</v>
       </c>
       <c r="AE6" t="n">
-        <v>1482712.990185135</v>
+        <v>1558674.026087013</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.587363009977447e-06</v>
+        <v>3.181864954868057e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.43958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1341204.943402617</v>
+        <v>1409916.364650004</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1758.885820409514</v>
+        <v>1833.317312111598</v>
       </c>
       <c r="AB2" t="n">
-        <v>2406.585176050202</v>
+        <v>2508.425626682656</v>
       </c>
       <c r="AC2" t="n">
-        <v>2176.904064511479</v>
+        <v>2269.025005469542</v>
       </c>
       <c r="AD2" t="n">
-        <v>1758885.820409514</v>
+        <v>1833317.312111598</v>
       </c>
       <c r="AE2" t="n">
-        <v>2406585.176050202</v>
+        <v>2508425.626682656</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222480882618346e-06</v>
+        <v>2.557506457845473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2176904.064511479</v>
+        <v>2269025.005469542</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1044.369150059203</v>
+        <v>1108.155303245864</v>
       </c>
       <c r="AB3" t="n">
-        <v>1428.951945426141</v>
+        <v>1516.226974262603</v>
       </c>
       <c r="AC3" t="n">
-        <v>1292.574777301321</v>
+        <v>1371.520399876903</v>
       </c>
       <c r="AD3" t="n">
-        <v>1044369.150059203</v>
+        <v>1108155.303245864</v>
       </c>
       <c r="AE3" t="n">
-        <v>1428951.945426141</v>
+        <v>1516226.974262603</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.572968488249063e-06</v>
+        <v>3.290748447589702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>1292574.777301321</v>
+        <v>1371520.399876903</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>994.1021099278076</v>
+        <v>1057.888263114468</v>
       </c>
       <c r="AB4" t="n">
-        <v>1360.174363493067</v>
+        <v>1447.449392329529</v>
       </c>
       <c r="AC4" t="n">
-        <v>1230.361231257997</v>
+        <v>1309.30685383358</v>
       </c>
       <c r="AD4" t="n">
-        <v>994102.1099278077</v>
+        <v>1057888.263114468</v>
       </c>
       <c r="AE4" t="n">
-        <v>1360174.363493067</v>
+        <v>1447449.392329529</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.608100106402119e-06</v>
+        <v>3.364245989824112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1230361.231257997</v>
+        <v>1309306.85383358</v>
       </c>
     </row>
   </sheetData>
@@ -22010,28 +22010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1258.551665425624</v>
+        <v>1330.324020991311</v>
       </c>
       <c r="AB2" t="n">
-        <v>1722.005912016174</v>
+        <v>1820.208015274002</v>
       </c>
       <c r="AC2" t="n">
-        <v>1557.660084623827</v>
+        <v>1646.489916974245</v>
       </c>
       <c r="AD2" t="n">
-        <v>1258551.665425624</v>
+        <v>1330324.02099131</v>
       </c>
       <c r="AE2" t="n">
-        <v>1722005.912016174</v>
+        <v>1820208.015274002</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402425666998309e-06</v>
+        <v>3.048671127999579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.73229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1557660.084623827</v>
+        <v>1646489.916974245</v>
       </c>
     </row>
     <row r="3">
@@ -22116,28 +22116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>943.7070097103328</v>
+        <v>995.0340252333539</v>
       </c>
       <c r="AB3" t="n">
-        <v>1291.221564100608</v>
+        <v>1361.449451127317</v>
       </c>
       <c r="AC3" t="n">
-        <v>1167.989190263692</v>
+        <v>1231.514626318031</v>
       </c>
       <c r="AD3" t="n">
-        <v>943707.0097103328</v>
+        <v>995034.0252333538</v>
       </c>
       <c r="AE3" t="n">
-        <v>1291221.564100608</v>
+        <v>1361449.451127317</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606763937999652e-06</v>
+        <v>3.492873057418415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.11354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1167989.190263692</v>
+        <v>1231514.626318031</v>
       </c>
     </row>
   </sheetData>
@@ -22413,28 +22413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.0620053425883</v>
+        <v>932.5633058753006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1184.984243668823</v>
+        <v>1275.974256888</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.891010588901</v>
+        <v>1154.197064651726</v>
       </c>
       <c r="AD2" t="n">
-        <v>866062.0053425883</v>
+        <v>932563.3058753005</v>
       </c>
       <c r="AE2" t="n">
-        <v>1184984.243668823</v>
+        <v>1275974.256888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.514246113116956e-06</v>
+        <v>3.601675209458679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071891.010588901</v>
+        <v>1154197.064651726</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3813.524774009284</v>
+        <v>3917.234170228217</v>
       </c>
       <c r="AB2" t="n">
-        <v>5217.832836638986</v>
+        <v>5359.732607881389</v>
       </c>
       <c r="AC2" t="n">
-        <v>4719.850193984345</v>
+        <v>4848.207250216948</v>
       </c>
       <c r="AD2" t="n">
-        <v>3813524.774009284</v>
+        <v>3917234.170228217</v>
       </c>
       <c r="AE2" t="n">
-        <v>5217832.836638986</v>
+        <v>5359732.60788139</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.393594037717795e-07</v>
+        <v>1.628842556717954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.09583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4719850.193984346</v>
+        <v>4848207.250216948</v>
       </c>
     </row>
     <row r="3">
@@ -22816,28 +22816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1811.204973629659</v>
+        <v>1891.782426883162</v>
       </c>
       <c r="AB3" t="n">
-        <v>2478.170549644143</v>
+        <v>2588.420176011937</v>
       </c>
       <c r="AC3" t="n">
-        <v>2241.657430520317</v>
+        <v>2341.384987283891</v>
       </c>
       <c r="AD3" t="n">
-        <v>1811204.973629659</v>
+        <v>1891782.426883162</v>
       </c>
       <c r="AE3" t="n">
-        <v>2478170.549644143</v>
+        <v>2588420.176011937</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274503014013135e-06</v>
+        <v>2.473272758440846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>2241657.430520317</v>
+        <v>2341384.987283891</v>
       </c>
     </row>
     <row r="4">
@@ -22922,28 +22922,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1447.434625388794</v>
+        <v>1505.050996403113</v>
       </c>
       <c r="AB4" t="n">
-        <v>1980.443910765868</v>
+        <v>2059.277171442553</v>
       </c>
       <c r="AC4" t="n">
-        <v>1791.433123492859</v>
+        <v>1862.742648413738</v>
       </c>
       <c r="AD4" t="n">
-        <v>1447434.625388794</v>
+        <v>1505050.996403113</v>
       </c>
       <c r="AE4" t="n">
-        <v>1980443.910765868</v>
+        <v>2059277.171442553</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432681101470035e-06</v>
+        <v>2.78022970588467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1791433.123492859</v>
+        <v>1862742.648413738</v>
       </c>
     </row>
     <row r="5">
@@ -23028,28 +23028,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1264.236503012609</v>
+        <v>1333.290699964959</v>
       </c>
       <c r="AB5" t="n">
-        <v>1729.784157600021</v>
+        <v>1824.267156326388</v>
       </c>
       <c r="AC5" t="n">
-        <v>1564.695985365988</v>
+        <v>1650.161659301631</v>
       </c>
       <c r="AD5" t="n">
-        <v>1264236.503012609</v>
+        <v>1333290.699964959</v>
       </c>
       <c r="AE5" t="n">
-        <v>1729784.157600021</v>
+        <v>1824267.156326388</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51484753989609e-06</v>
+        <v>2.939680104654127e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.58125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1564695.985365988</v>
+        <v>1650161.659301631</v>
       </c>
     </row>
     <row r="6">
@@ -23134,28 +23134,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1165.460793489997</v>
+        <v>1222.991823649744</v>
       </c>
       <c r="AB6" t="n">
-        <v>1594.634874154428</v>
+        <v>1673.351367708916</v>
       </c>
       <c r="AC6" t="n">
-        <v>1442.445159849231</v>
+        <v>1513.649061738171</v>
       </c>
       <c r="AD6" t="n">
-        <v>1165460.793489997</v>
+        <v>1222991.823649744</v>
       </c>
       <c r="AE6" t="n">
-        <v>1594634.874154428</v>
+        <v>1673351.367708916</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.55793106566256e-06</v>
+        <v>3.023287055319759e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.28854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1442445.159849231</v>
+        <v>1513649.061738171</v>
       </c>
     </row>
     <row r="7">
@@ -23240,28 +23240,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1165.051914907824</v>
+        <v>1222.582945067571</v>
       </c>
       <c r="AB7" t="n">
-        <v>1594.075428439849</v>
+        <v>1672.791921994337</v>
       </c>
       <c r="AC7" t="n">
-        <v>1441.939106848465</v>
+        <v>1513.143008737404</v>
       </c>
       <c r="AD7" t="n">
-        <v>1165051.914907824</v>
+        <v>1222582.945067571</v>
       </c>
       <c r="AE7" t="n">
-        <v>1594075.428439849</v>
+        <v>1672791.921994337</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.559931372216004e-06</v>
+        <v>3.027168806600664e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.27395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1441939.106848465</v>
+        <v>1513143.008737404</v>
       </c>
     </row>
   </sheetData>
@@ -23537,28 +23537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6223.579808344328</v>
+        <v>6379.237925788804</v>
       </c>
       <c r="AB2" t="n">
-        <v>8515.376458740517</v>
+        <v>8728.354762179544</v>
       </c>
       <c r="AC2" t="n">
-        <v>7702.680880923923</v>
+        <v>7895.332833999646</v>
       </c>
       <c r="AD2" t="n">
-        <v>6223579.808344328</v>
+        <v>6379237.925788804</v>
       </c>
       <c r="AE2" t="n">
-        <v>8515376.458740517</v>
+        <v>8728354.762179544</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.470667450410832e-07</v>
+        <v>1.214151012197483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.871875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7702680.880923923</v>
+        <v>7895332.833999646</v>
       </c>
     </row>
     <row r="3">
@@ -23643,28 +23643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2366.126630755763</v>
+        <v>2450.034445684634</v>
       </c>
       <c r="AB3" t="n">
-        <v>3237.438842339965</v>
+        <v>3352.245216477191</v>
       </c>
       <c r="AC3" t="n">
-        <v>2928.462223000869</v>
+        <v>3032.311637922193</v>
       </c>
       <c r="AD3" t="n">
-        <v>2366126.630755763</v>
+        <v>2450034.445684634</v>
       </c>
       <c r="AE3" t="n">
-        <v>3237438.842339965</v>
+        <v>3352245.216477191</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.124953115175687e-06</v>
+        <v>2.110853283579814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.73020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2928462.223000869</v>
+        <v>3032311.637922193</v>
       </c>
     </row>
     <row r="4">
@@ -23749,28 +23749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1830.469995843194</v>
+        <v>1914.207129062922</v>
       </c>
       <c r="AB4" t="n">
-        <v>2504.529802949498</v>
+        <v>2619.102642842322</v>
       </c>
       <c r="AC4" t="n">
-        <v>2265.500993685653</v>
+        <v>2369.139162543097</v>
       </c>
       <c r="AD4" t="n">
-        <v>1830469.995843194</v>
+        <v>1914207.129062922</v>
       </c>
       <c r="AE4" t="n">
-        <v>2504529.802949498</v>
+        <v>2619102.642842323</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.299619619680361e-06</v>
+        <v>2.438596155341646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.884375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2265500.993685653</v>
+        <v>2369139.162543097</v>
       </c>
     </row>
     <row r="5">
@@ -23855,28 +23855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1609.654293438646</v>
+        <v>1669.58853646782</v>
       </c>
       <c r="AB5" t="n">
-        <v>2202.400017218341</v>
+        <v>2284.404692643046</v>
       </c>
       <c r="AC5" t="n">
-        <v>1992.20605066286</v>
+        <v>2066.384314959316</v>
       </c>
       <c r="AD5" t="n">
-        <v>1609654.293438646</v>
+        <v>1669588.53646782</v>
       </c>
       <c r="AE5" t="n">
-        <v>2202400.017218341</v>
+        <v>2284404.692643046</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.392439001530892e-06</v>
+        <v>2.612761722169241e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.09270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1992206.05066286</v>
+        <v>2066384.314959316</v>
       </c>
     </row>
     <row r="6">
@@ -23961,28 +23961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1462.247996009014</v>
+        <v>1534.08363937919</v>
       </c>
       <c r="AB6" t="n">
-        <v>2000.712217968242</v>
+        <v>2099.000914392233</v>
       </c>
       <c r="AC6" t="n">
-        <v>1809.767051902586</v>
+        <v>1898.675213088923</v>
       </c>
       <c r="AD6" t="n">
-        <v>1462247.996009014</v>
+        <v>1534083.63937919</v>
       </c>
       <c r="AE6" t="n">
-        <v>2000712.217968242</v>
+        <v>2099000.914392233</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.450710594290091e-06</v>
+        <v>2.72210208600829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.64583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1809767.051902586</v>
+        <v>1898675.213088923</v>
       </c>
     </row>
     <row r="7">
@@ -24067,28 +24067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1359.192961467465</v>
+        <v>1419.041863642066</v>
       </c>
       <c r="AB7" t="n">
-        <v>1859.707773241244</v>
+        <v>1941.595681543751</v>
       </c>
       <c r="AC7" t="n">
-        <v>1682.219873479351</v>
+        <v>1756.292514743869</v>
       </c>
       <c r="AD7" t="n">
-        <v>1359192.961467465</v>
+        <v>1419041.863642066</v>
       </c>
       <c r="AE7" t="n">
-        <v>1859707.773241244</v>
+        <v>1941595.681543751</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.491485881844238e-06</v>
+        <v>2.798612518720093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.35520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1682219.873479351</v>
+        <v>1756292.514743869</v>
       </c>
     </row>
     <row r="8">
@@ -24173,28 +24173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1284.087480006324</v>
+        <v>1343.936382180926</v>
       </c>
       <c r="AB8" t="n">
-        <v>1756.945140086118</v>
+        <v>1838.833048388626</v>
       </c>
       <c r="AC8" t="n">
-        <v>1589.26476180429</v>
+        <v>1663.337403068807</v>
       </c>
       <c r="AD8" t="n">
-        <v>1284087.480006324</v>
+        <v>1343936.382180926</v>
       </c>
       <c r="AE8" t="n">
-        <v>1756945.140086118</v>
+        <v>1838833.048388626</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.51713724456012e-06</v>
+        <v>2.8467445363897e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.18020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1589264.76180429</v>
+        <v>1663337.403068807</v>
       </c>
     </row>
     <row r="9">
@@ -24279,28 +24279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1275.312781633287</v>
+        <v>1335.161683807889</v>
       </c>
       <c r="AB9" t="n">
-        <v>1744.939210659759</v>
+        <v>1826.827118962266</v>
       </c>
       <c r="AC9" t="n">
-        <v>1578.404661431954</v>
+        <v>1652.477302696472</v>
       </c>
       <c r="AD9" t="n">
-        <v>1275312.781633287</v>
+        <v>1335161.683807889</v>
       </c>
       <c r="AE9" t="n">
-        <v>1744939.210659759</v>
+        <v>1826827.118962266</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.521882005293693e-06</v>
+        <v>2.8556475685598e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.14895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1578404.661431954</v>
+        <v>1652477.302696472</v>
       </c>
     </row>
     <row r="10">
@@ -24385,28 +24385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1281.443780165144</v>
+        <v>1341.292682339746</v>
       </c>
       <c r="AB10" t="n">
-        <v>1753.327913331611</v>
+        <v>1835.215821634119</v>
       </c>
       <c r="AC10" t="n">
-        <v>1585.992758094423</v>
+        <v>1660.065399358941</v>
       </c>
       <c r="AD10" t="n">
-        <v>1281443.780165144</v>
+        <v>1341292.682339746</v>
       </c>
       <c r="AE10" t="n">
-        <v>1753327.913331611</v>
+        <v>1835215.821634119</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.521733731520769e-06</v>
+        <v>2.855369348804485e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.15</v>
       </c>
       <c r="AH10" t="n">
-        <v>1585992.758094423</v>
+        <v>1660065.399358941</v>
       </c>
     </row>
   </sheetData>
@@ -24682,28 +24682,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>865.9246842821977</v>
+        <v>929.9607836788108</v>
       </c>
       <c r="AB2" t="n">
-        <v>1184.796354935819</v>
+        <v>1272.413371203587</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.721053692872</v>
+        <v>1150.976024899299</v>
       </c>
       <c r="AD2" t="n">
-        <v>865924.6842821977</v>
+        <v>929960.7836788108</v>
       </c>
       <c r="AE2" t="n">
-        <v>1184796.354935819</v>
+        <v>1272413.371203587</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.383769363010291e-06</v>
+        <v>3.460702163279845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071721.053692872</v>
+        <v>1150976.024899299</v>
       </c>
     </row>
   </sheetData>
@@ -24979,28 +24979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2020.299041167952</v>
+        <v>2106.725276108124</v>
       </c>
       <c r="AB2" t="n">
-        <v>2764.262277429258</v>
+        <v>2882.514464930787</v>
       </c>
       <c r="AC2" t="n">
-        <v>2500.444965337882</v>
+        <v>2607.411330032254</v>
       </c>
       <c r="AD2" t="n">
-        <v>2020299.041167952</v>
+        <v>2106725.276108123</v>
       </c>
       <c r="AE2" t="n">
-        <v>2764262.277429258</v>
+        <v>2882514.464930787</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.146200907773829e-06</v>
+        <v>2.360352569059818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.840625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2500444.965337882</v>
+        <v>2607411.330032254</v>
       </c>
     </row>
     <row r="3">
@@ -25085,28 +25085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1181.658458815514</v>
+        <v>1246.371548460979</v>
       </c>
       <c r="AB3" t="n">
-        <v>1616.797234443362</v>
+        <v>1705.340538636311</v>
       </c>
       <c r="AC3" t="n">
-        <v>1462.492375577257</v>
+        <v>1542.585231089339</v>
       </c>
       <c r="AD3" t="n">
-        <v>1181658.458815514</v>
+        <v>1246371.548460979</v>
       </c>
       <c r="AE3" t="n">
-        <v>1616797.234443361</v>
+        <v>1705340.538636311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.513135434026542e-06</v>
+        <v>3.115974769184823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.24270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1462492.375577257</v>
+        <v>1542585.231089339</v>
       </c>
     </row>
     <row r="4">
@@ -25191,28 +25191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1019.812268197399</v>
+        <v>1084.610609188885</v>
       </c>
       <c r="AB4" t="n">
-        <v>1395.352136289654</v>
+        <v>1484.012085135252</v>
       </c>
       <c r="AC4" t="n">
-        <v>1262.181686791191</v>
+        <v>1342.380054553986</v>
       </c>
       <c r="AD4" t="n">
-        <v>1019812.268197399</v>
+        <v>1084610.609188885</v>
       </c>
       <c r="AE4" t="n">
-        <v>1395352.136289654</v>
+        <v>1484012.085135252</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.602460394355974e-06</v>
+        <v>3.299920182388374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.615625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1262181.686791191</v>
+        <v>1342380.054553986</v>
       </c>
     </row>
     <row r="5">
@@ -25297,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026.637102055085</v>
+        <v>1091.435443046571</v>
       </c>
       <c r="AB5" t="n">
-        <v>1404.690175064159</v>
+        <v>1493.350123909758</v>
       </c>
       <c r="AC5" t="n">
-        <v>1270.628516251078</v>
+        <v>1350.826884013872</v>
       </c>
       <c r="AD5" t="n">
-        <v>1026637.102055085</v>
+        <v>1091435.443046571</v>
       </c>
       <c r="AE5" t="n">
-        <v>1404690.175064159</v>
+        <v>1493350.123909758</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.602623694100635e-06</v>
+        <v>3.300256462851269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.61458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1270628.516251078</v>
+        <v>1350826.884013872</v>
       </c>
     </row>
   </sheetData>
@@ -25594,28 +25594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2991.087632687084</v>
+        <v>3092.268806445454</v>
       </c>
       <c r="AB2" t="n">
-        <v>4092.538056515966</v>
+        <v>4230.978602250522</v>
       </c>
       <c r="AC2" t="n">
-        <v>3701.951968315165</v>
+        <v>3827.179942667336</v>
       </c>
       <c r="AD2" t="n">
-        <v>2991087.632687084</v>
+        <v>3092268.806445454</v>
       </c>
       <c r="AE2" t="n">
-        <v>4092538.056515966</v>
+        <v>4230978.602250522</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.49939261733615e-07</v>
+        <v>1.882004572505347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3701951.968315165</v>
+        <v>3827179.942667336</v>
       </c>
     </row>
     <row r="3">
@@ -25700,28 +25700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1559.818192643026</v>
+        <v>1627.300785269646</v>
       </c>
       <c r="AB3" t="n">
-        <v>2134.212065496176</v>
+        <v>2226.544725849791</v>
       </c>
       <c r="AC3" t="n">
-        <v>1930.525861350667</v>
+        <v>2014.046422189836</v>
       </c>
       <c r="AD3" t="n">
-        <v>1559818.192643026</v>
+        <v>1627300.785269646</v>
       </c>
       <c r="AE3" t="n">
-        <v>2134212.065496176</v>
+        <v>2226544.72584979</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361233718651049e-06</v>
+        <v>2.696854615814514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1930525.861350667</v>
+        <v>2014046.422189835</v>
       </c>
     </row>
     <row r="4">
@@ -25806,28 +25806,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1246.283295155972</v>
+        <v>1313.765798274042</v>
       </c>
       <c r="AB4" t="n">
-        <v>1705.21978657094</v>
+        <v>1797.552324455006</v>
       </c>
       <c r="AC4" t="n">
-        <v>1542.47600343161</v>
+        <v>1625.996453489552</v>
       </c>
       <c r="AD4" t="n">
-        <v>1246283.295155972</v>
+        <v>1313765.798274042</v>
       </c>
       <c r="AE4" t="n">
-        <v>1705219.786570939</v>
+        <v>1797552.324455006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.508708565970833e-06</v>
+        <v>2.989029440212067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.85520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1542476.003431611</v>
+        <v>1625996.453489552</v>
       </c>
     </row>
     <row r="5">
@@ -25912,28 +25912,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1110.851151354741</v>
+        <v>1167.072436652589</v>
       </c>
       <c r="AB5" t="n">
-        <v>1519.915552577594</v>
+        <v>1596.839995430165</v>
       </c>
       <c r="AC5" t="n">
-        <v>1374.856945454464</v>
+        <v>1444.439827445319</v>
       </c>
       <c r="AD5" t="n">
-        <v>1110851.151354742</v>
+        <v>1167072.436652589</v>
       </c>
       <c r="AE5" t="n">
-        <v>1519915.552577594</v>
+        <v>1596839.995430165</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.575528192954743e-06</v>
+        <v>3.121411423547845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.39479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1374856.945454464</v>
+        <v>1444439.827445319</v>
       </c>
     </row>
     <row r="6">
@@ -26018,28 +26018,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1110.161925613752</v>
+        <v>1166.383210911599</v>
       </c>
       <c r="AB6" t="n">
-        <v>1518.972523512278</v>
+        <v>1595.896966364849</v>
       </c>
       <c r="AC6" t="n">
-        <v>1374.003917759592</v>
+        <v>1443.586799750447</v>
       </c>
       <c r="AD6" t="n">
-        <v>1110161.925613752</v>
+        <v>1166383.210911599</v>
       </c>
       <c r="AE6" t="n">
-        <v>1518972.523512278</v>
+        <v>1595896.966364849</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.578515423337553e-06</v>
+        <v>3.127329676920504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.37604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1374003.917759592</v>
+        <v>1443586.799750447</v>
       </c>
     </row>
   </sheetData>
